--- a/Capacity.xlsx
+++ b/Capacity.xlsx
@@ -5058,7 +5058,7 @@
         <v>2015</v>
       </c>
       <c r="F194">
-        <v>119299.00485</v>
+        <v>360029.3870000001</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>2020</v>
       </c>
       <c r="F195">
-        <v>119299.00485</v>
+        <v>360029.3870000001</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5104,7 +5104,7 @@
         <v>2025</v>
       </c>
       <c r="F196">
-        <v>119299.00485</v>
+        <v>360029.3870000001</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -5127,7 +5127,7 @@
         <v>2020</v>
       </c>
       <c r="F197">
-        <v>57277.5</v>
+        <v>171832.5</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>2025</v>
       </c>
       <c r="F198">
-        <v>57277.5</v>
+        <v>171832.5</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>2025</v>
       </c>
       <c r="F199">
-        <v>46420</v>
+        <v>139260</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>2015</v>
       </c>
       <c r="F317">
-        <v>240730.38215</v>
+        <v>0</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -7910,7 +7910,7 @@
         <v>2020</v>
       </c>
       <c r="F318">
-        <v>240730.38215</v>
+        <v>0</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>2025</v>
       </c>
       <c r="F319">
-        <v>240730.38215</v>
+        <v>0</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -7956,7 +7956,7 @@
         <v>2020</v>
       </c>
       <c r="F320">
-        <v>114555</v>
+        <v>0</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>2025</v>
       </c>
       <c r="F321">
-        <v>114555</v>
+        <v>0</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>2025</v>
       </c>
       <c r="F322">
-        <v>92840</v>
+        <v>0</v>
       </c>
       <c r="G322">
         <v>0</v>
